--- a/Resources/1993/Advanced_Percentile_1993.xlsx
+++ b/Resources/1993/Advanced_Percentile_1993.xlsx
@@ -1225,25 +1225,25 @@
     <t>grantgr01</t>
   </si>
   <si>
-    <t>Karl Malone*</t>
-  </si>
-  <si>
-    <t>Charles Barkley*</t>
-  </si>
-  <si>
-    <t>Hakeem Olajuwon*</t>
-  </si>
-  <si>
-    <t>Michael Jordan*</t>
-  </si>
-  <si>
-    <t>Shaquille O'Neal*</t>
-  </si>
-  <si>
-    <t>Dominique Wilkins*</t>
-  </si>
-  <si>
-    <t>David Robinson*</t>
+    <t>Karl Malone</t>
+  </si>
+  <si>
+    <t>Charles Barkley</t>
+  </si>
+  <si>
+    <t>Hakeem Olajuwon</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Shaquille O'Neal</t>
+  </si>
+  <si>
+    <t>Dominique Wilkins</t>
+  </si>
+  <si>
+    <t>David Robinson</t>
   </si>
   <si>
     <t>Mark Price</t>
@@ -1252,19 +1252,19 @@
     <t>Brad Daugherty</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
-  </si>
-  <si>
-    <t>Patrick Ewing*</t>
+    <t>Reggie Miller</t>
+  </si>
+  <si>
+    <t>Patrick Ewing</t>
   </si>
   <si>
     <t>Ricky Pierce</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
-  </si>
-  <si>
-    <t>Sarunas Marciulionis*</t>
+    <t>Alonzo Mourning</t>
+  </si>
+  <si>
+    <t>Sarunas Marciulionis</t>
   </si>
   <si>
     <t>Cedric Ceballos</t>
@@ -1276,7 +1276,7 @@
     <t>Danny Manning</t>
   </si>
   <si>
-    <t>Drazen Petrovic*</t>
+    <t>Drazen Petrovic</t>
   </si>
   <si>
     <t>Shawn Kemp</t>
@@ -1285,7 +1285,7 @@
     <t>Detlef Schrempf</t>
   </si>
   <si>
-    <t>John Stockton*</t>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Hersey Hawkins</t>
@@ -1294,7 +1294,7 @@
     <t>Larry Johnson</t>
   </si>
   <si>
-    <t>Chris Mullin*</t>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Larry Nance</t>
@@ -1303,10 +1303,10 @@
     <t>Howard Wright</t>
   </si>
   <si>
-    <t>Joe Dumars*</t>
-  </si>
-  <si>
-    <t>Clyde Drexler*</t>
+    <t>Joe Dumars</t>
+  </si>
+  <si>
+    <t>Clyde Drexler</t>
   </si>
   <si>
     <t>Terry Porter</t>
@@ -1327,7 +1327,7 @@
     <t>Kevin Johnson</t>
   </si>
   <si>
-    <t>Robert Parish*</t>
+    <t>Robert Parish</t>
   </si>
   <si>
     <t>Kenny Smith</t>
@@ -1351,7 +1351,7 @@
     <t>Clifford Robinson</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Chris Morris</t>
@@ -1390,13 +1390,13 @@
     <t>Dan O'Sullivan</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Dale Ellis</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Charles Smith</t>
@@ -1450,7 +1450,7 @@
     <t>Kevin Willis</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Danny Ainge</t>
@@ -1510,7 +1510,7 @@
     <t>Chris Corchiani</t>
   </si>
   <si>
-    <t>Bernard King*</t>
+    <t>Bernard King</t>
   </si>
   <si>
     <t>B.J. Armstrong</t>
@@ -1651,7 +1651,7 @@
     <t>Duane Causwell</t>
   </si>
   <si>
-    <t>Isiah Thomas*</t>
+    <t>Isiah Thomas</t>
   </si>
   <si>
     <t>Marlon Maxey</t>
@@ -1705,7 +1705,7 @@
     <t>Adam Keefe</t>
   </si>
   <si>
-    <t>James Worthy*</t>
+    <t>James Worthy</t>
   </si>
   <si>
     <t>Mark Aguirre</t>
@@ -1717,7 +1717,7 @@
     <t>Scott Williams</t>
   </si>
   <si>
-    <t>Maurice Cheeks*</t>
+    <t>Maurice Cheeks</t>
   </si>
   <si>
     <t>Clarence Weatherspoon</t>
@@ -1741,7 +1741,7 @@
     <t>Kenny Gattison</t>
   </si>
   <si>
-    <t>Moses Malone*</t>
+    <t>Moses Malone</t>
   </si>
   <si>
     <t>John Salley</t>
@@ -1789,7 +1789,7 @@
     <t>Alvin Robertson</t>
   </si>
   <si>
-    <t>Kevin McHale*</t>
+    <t>Kevin McHale</t>
   </si>
   <si>
     <t>Paul Graham</t>
@@ -1885,7 +1885,7 @@
     <t>Andre Spencer</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Alex Stivrins</t>
